--- a/result-all-1.xlsx
+++ b/result-all-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Master\QUEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A490D-3B25-45C2-B4C9-ED6987D42710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC6DB27-B1E9-4B2F-9C0D-7D8159304828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Success Rate" sheetId="5" r:id="rId5"/>
     <sheet name="Load Edge" sheetId="6" r:id="rId6"/>
     <sheet name="Load Cloud" sheetId="7" r:id="rId7"/>
-    <sheet name="Load Edges" sheetId="8" r:id="rId8"/>
+    <sheet name="Loads" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -233,7 +233,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$5</c:f>
+              <c:f>Loads!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -374,7 +374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$5:$AH$5</c:f>
+              <c:f>Loads!$B$5:$AH$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -491,7 +491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$6</c:f>
+              <c:f>Loads!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +512,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -632,7 +632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$6:$AH$6</c:f>
+              <c:f>Loads!$B$6:$AH$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -749,7 +749,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$7</c:f>
+              <c:f>Loads!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -770,7 +770,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -890,7 +890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$7:$AH$7</c:f>
+              <c:f>Loads!$B$7:$AH$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1007,7 +1007,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$8</c:f>
+              <c:f>Loads!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1028,7 +1028,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -1148,7 +1148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$8:$AH$8</c:f>
+              <c:f>Loads!$B$8:$AH$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1265,7 +1265,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$9</c:f>
+              <c:f>Loads!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,7 +1286,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -1406,7 +1406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$9:$AH$9</c:f>
+              <c:f>Loads!$B$9:$AH$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1523,7 +1523,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Load Edges'!$A$10</c:f>
+              <c:f>Loads!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1544,7 +1544,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Load Edges'!$B$3:$AH$4</c:f>
+              <c:f>Loads!$B$3:$AH$4</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="33"/>
                 <c:lvl>
@@ -1664,7 +1664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Load Edges'!$B$10:$AH$10</c:f>
+              <c:f>Loads!$B$10:$AH$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -7290,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
